--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>warning</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -127,178 +124,190 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>clean</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -875,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9416666666666667</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -975,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7941176470588235</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9084507042253521</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8929503916449086</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L10">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7027027027027027</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8793103448275862</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6944444444444444</v>
+        <v>0.64</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8773584905660378</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.68</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1325,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5767195767195767</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="D17">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8636363636363636</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,16 +1505,16 @@
         <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5254237288135594</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.8604651162790697</v>
+        <v>0.86875</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5174418604651163</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8671875</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8484848484848485</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1675,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4363636363636363</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8461538461538461</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4117647058823529</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1743,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3466666666666667</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1793,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.8297872340425532</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3154362416107382</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.8148148148148148</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2678571428571428</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1925,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2363636363636364</v>
+        <v>0.04825737265415549</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1943,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.7894736842105263</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,87 +1984,63 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06746031746031746</v>
+        <v>0.005475040257648953</v>
       </c>
       <c r="C28">
         <v>17</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>235</v>
+        <v>3088</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+      <c r="M28">
+        <v>38</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
-        <v>0.78</v>
-      </c>
-      <c r="L28">
-        <v>39</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.005157962604771115</v>
-      </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <v>0.24</v>
-      </c>
-      <c r="F29">
-        <v>0.76</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3086</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K29">
-        <v>0.7727272727272727</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.7708333333333334</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.7647058823529411</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2119,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.7619047619047619</v>
+        <v>0.76</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2145,12 +2130,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33">
         <v>0.75</v>
@@ -2176,16 +2161,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34">
         <v>0.75</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2197,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2223,47 +2208,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0.7112970711297071</v>
+      </c>
+      <c r="L36">
+        <v>170</v>
+      </c>
+      <c r="M36">
+        <v>170</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>69</v>
-      </c>
-      <c r="K36">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.7294117647058823</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L37">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2275,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.7112970711297071</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L38">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2301,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.7074829931972789</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L39">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M39">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2324,24 +2309,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.7021276595744681</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L40">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2353,21 +2338,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.6666666666666666</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2379,21 +2364,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42">
         <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2405,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43">
         <v>0.6666666666666666</v>
@@ -2436,16 +2421,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.6629213483146067</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L44">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2457,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.6615384615384615</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2483,21 +2468,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.6296296296296297</v>
+        <v>0.65</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2509,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2535,15 +2520,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.5769230769230769</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
         <v>15</v>
@@ -2561,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.5714285714285714</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2587,21 +2572,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2613,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2639,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2665,21 +2650,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.5098039215686274</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2691,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.4383561643835616</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2717,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.4193548387096774</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2743,21 +2728,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.4</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2769,21 +2754,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.3559322033898305</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2795,21 +2780,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.3333333333333333</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2821,21 +2806,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>0.3333333333333333</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2847,21 +2832,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K60">
-        <v>0.28125</v>
+        <v>0.328125</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2873,33 +2858,137 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K61">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K61">
-        <v>0.25</v>
-      </c>
-      <c r="L61">
-        <v>18</v>
-      </c>
-      <c r="M61">
-        <v>18</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>54</v>
+      <c r="K62">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L62">
+        <v>16</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>0.2131147540983606</v>
+      </c>
+      <c r="L63">
+        <v>13</v>
+      </c>
+      <c r="M63">
+        <v>13</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65">
+        <v>0.00407395800689439</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>23</v>
+      </c>
+      <c r="N65">
+        <v>0.57</v>
+      </c>
+      <c r="O65">
+        <v>0.43</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
